--- a/output/out_excel/test_parameter/data_labeled.xlsx
+++ b/output/out_excel/test_parameter/data_labeled.xlsx
@@ -484,13 +484,13 @@
         <v>0.1558373297723198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01500771172771469</v>
+        <v>0.03610305060647555</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01203765625044293</v>
+        <v>0.02962802687438672</v>
       </c>
       <c r="I2" t="n">
-        <v>0.952346885146484</v>
+        <v>0.8966768717453046</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>0.1534332346897827</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02135428746049746</v>
+        <v>0.04206075011517957</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01832945144627705</v>
+        <v>0.02941297523609051</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8155400553138634</v>
+        <v>0.7792759239402862</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -552,13 +552,13 @@
         <v>0.1500966124374624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01115866928031149</v>
+        <v>0.04367587408253915</v>
       </c>
       <c r="H4" t="n">
-        <v>0.009122404585846438</v>
+        <v>0.03851780101009961</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9961120330229755</v>
+        <v>0.849636719234776</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -586,13 +586,13 @@
         <v>0.1526520662462137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005888331568927034</v>
+        <v>0.01279733275079968</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004802713781688002</v>
+        <v>0.009877648428077685</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9820035496728053</v>
+        <v>0.9841915360654097</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -620,13 +620,13 @@
         <v>0.1536547781044031</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0206399128267918</v>
+        <v>0.02863196580284044</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01657572788961045</v>
+        <v>0.02217154059815238</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9774126271863707</v>
+        <v>0.93238304070893</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -654,13 +654,13 @@
         <v>0.1519868160315216</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.00072164456540591</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.00072164456540591</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -688,13 +688,13 @@
         <v>0.1520161194816056</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01868107512684775</v>
+        <v>0.04854975944118319</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01527593776877113</v>
+        <v>0.03972664576835257</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9197737753724439</v>
+        <v>0.7401901702060596</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -722,13 +722,13 @@
         <v>0.1519037771874001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01226851870715134</v>
+        <v>0.03870507238061709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01028763770639881</v>
+        <v>0.03227888378133689</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9923452120378879</v>
+        <v>0.9041125588155597</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>0.1527905838030862</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006320623154938333</v>
+        <v>0.008935991330989443</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004822455419941439</v>
+        <v>0.006808702845077137</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9764629085046879</v>
+        <v>0.9922561561314475</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -790,13 +790,13 @@
         <v>0.1465264957885437</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01923292191399065</v>
+        <v>0.02754970086832659</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01379384675898766</v>
+        <v>0.02231273774802066</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9742728146409706</v>
+        <v>0.9361703187624111</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -824,13 +824,13 @@
         <v>0.1529322384218759</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01704452607574521</v>
+        <v>0.03131467268923646</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01333280135770985</v>
+        <v>0.0271425883500411</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9174561702828744</v>
+        <v>0.9200263497335257</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -892,13 +892,13 @@
         <v>0.150224700369917</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009485657181911224</v>
+        <v>0.1070204674541322</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009062254314048465</v>
+        <v>0.07998116939477266</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9988288028988275</v>
+        <v>0.6016821687551963</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -926,13 +926,13 @@
         <v>0.1528751047939759</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006814251044309055</v>
+        <v>0.01253458574461442</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005113155625769277</v>
+        <v>0.01137535145395804</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9831704564073486</v>
+        <v>0.9812857651222114</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -960,13 +960,13 @@
         <v>0.1540375938068267</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0218458654213672</v>
+        <v>0.04995075777609275</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0192672892400132</v>
+        <v>0.03651754629601307</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8742799941177029</v>
+        <v>0.8048082600575938</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -994,13 +994,13 @@
         <v>0.1522125173157593</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01708150711492362</v>
+        <v>0.03728957186256869</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01261243981941241</v>
+        <v>0.03038515542027997</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9867730450944601</v>
+        <v>0.9025796501827765</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1062,13 +1062,13 @@
         <v>0.1523354412456693</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00791606441515029</v>
+        <v>0.009419103519648418</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006069425474436018</v>
+        <v>0.007161817792903626</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9718378112780899</v>
+        <v>0.9919993158397526</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1096,13 +1096,13 @@
         <v>0.1515818995712107</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05608800349271299</v>
+        <v>0.2260000603956003</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03385101274213609</v>
+        <v>0.1860703052033772</v>
       </c>
       <c r="I20" t="n">
-        <v>0.953263988519201</v>
+        <v>-0.5428640119040629</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>0.1508195207506612</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01453144274923059</v>
+        <v>0.01476642655127117</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01091164063430767</v>
+        <v>0.01265350669783064</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9247405603390912</v>
+        <v>0.9795193378140926</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1198,13 +1198,13 @@
         <v>0.1492239440246994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01655282280517598</v>
+        <v>0.02991437724315698</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01169812811542886</v>
+        <v>0.0231693272788059</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9859726446210386</v>
+        <v>0.9356243603816317</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1266,13 +1266,13 @@
         <v>0.1484095396935913</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05022484495314952</v>
+        <v>0.0727321099105632</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03471310680332351</v>
+        <v>0.06249923890352882</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7806100848478068</v>
+        <v>0.7323485042637632</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1300,13 +1300,13 @@
         <v>0.1474697605838933</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02735244024249856</v>
+        <v>0.03997878757854137</v>
       </c>
       <c r="H26" t="n">
-        <v>0.024824871562517</v>
+        <v>0.03033079754323986</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9737894240242564</v>
+        <v>0.8892899343886684</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1334,13 +1334,13 @@
         <v>0.1517592376634381</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00394241344685052</v>
+        <v>0.01492286784809646</v>
       </c>
       <c r="H27" t="n">
-        <v>0.003425309960769444</v>
+        <v>0.01216345917277525</v>
       </c>
       <c r="I27" t="n">
-        <v>0.995318014568244</v>
+        <v>0.9852278508375966</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1368,13 +1368,13 @@
         <v>0.1518481176585061</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02369291640697348</v>
+        <v>0.04159517268588053</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01766991679708556</v>
+        <v>0.03576272667993004</v>
       </c>
       <c r="I28" t="n">
-        <v>0.976440330922709</v>
+        <v>0.8799709221938732</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1402,13 +1402,13 @@
         <v>0.1517196422874892</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02857364189958553</v>
+        <v>0.03381573516544372</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02100612262702235</v>
+        <v>0.02836332156304972</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7636108296616437</v>
+        <v>0.9002339580999384</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1436,13 +1436,13 @@
         <v>0.1509413625750246</v>
       </c>
       <c r="G30" t="n">
-        <v>0.008738018670954889</v>
+        <v>0.01382792199348841</v>
       </c>
       <c r="H30" t="n">
-        <v>0.003952007094094817</v>
+        <v>0.01159478279518422</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9704365998994822</v>
+        <v>0.9800448503322999</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -1470,13 +1470,13 @@
         <v>0.1497985741306503</v>
       </c>
       <c r="G31" t="n">
-        <v>0.019134643098572</v>
+        <v>0.02283248362889998</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01584948358352328</v>
+        <v>0.01549194593669462</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8880523518913562</v>
+        <v>0.9298935281585758</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1504,13 +1504,13 @@
         <v>0.1515886692537184</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00684260946908632</v>
+        <v>0.01696810558439541</v>
       </c>
       <c r="H32" t="n">
-        <v>0.005722949251999588</v>
+        <v>0.01493147344804608</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9815590290722935</v>
+        <v>0.9691069322266278</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1572,13 +1572,13 @@
         <v>0.1481218162930753</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01747528690660743</v>
+        <v>0.09109114755556109</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01660160010575022</v>
+        <v>0.07217103055672187</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9957889212317156</v>
+        <v>0.6369094188915406</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1708,13 +1708,13 @@
         <v>0.1541789093057127</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1721719437833215</v>
+        <v>0.2014864056314926</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1492836960739256</v>
+        <v>0.1710316697266309</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04774189238323734</v>
+        <v>-0.4230806214895253</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00608405684164562</v>
+        <v>0.002734970331026548</v>
       </c>
       <c r="H40" t="n">
-        <v>0.005978637302877115</v>
+        <v>0.002368550044713347</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9817396521885543</v>
+        <v>0.9991629287485503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0.1527600627522957</v>
       </c>
       <c r="G41" t="n">
-        <v>0.006632678534276165</v>
+        <v>0.008786255820602645</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005257028301477667</v>
+        <v>0.007668715473302345</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9738683032739022</v>
+        <v>0.991792980826775</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
